--- a/biology/Médecine/Grande_incisure_ischiatique/Grande_incisure_ischiatique.xlsx
+++ b/biology/Médecine/Grande_incisure_ischiatique/Grande_incisure_ischiatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 La grande incisure ischiatique (ou grande échancrure sciatique) est une large échancrure large et profonde du bord postérieur de l'os coxal.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grande incisure sciatique est située entre l'épine iliaque postérieure et inférieure et l'épine ischiatique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La grande incisure sciatique est située entre l'épine iliaque postérieure et inférieure et l'épine ischiatique.
 Le ligament sacro-épineux et le ligament sacro-tubéral le transforme en orifice ostéo-fibreux : le grand foramen ischiatique..
 Ce canal permet le passage :
 du muscle piriforme,
@@ -529,9 +543,43 @@
 de l'artère pudendale interne,
 des veines pudendales internes,
 du nerf du muscle obturateur interne,
-du nerf du muscle carré fémoral.
-Variations
-La grande échancrure sciatique est plus large chez les femmes (environ 74,4 degrés en moyenne) que chez les hommes (environ 50,4 degrés)[1].
+du nerf du muscle carré fémoral.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grande_incisure_ischiatique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grande_incisure_ischiatique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande échancrure sciatique est plus large chez les femmes (environ 74,4 degrés en moyenne) que chez les hommes (environ 50,4 degrés).
 </t>
         </is>
       </c>
